--- a/UZr/temperature_gradient.xlsx
+++ b/UZr/temperature_gradient.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4356CDC-C436-C942-B484-6B82F6143CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD5929-13FF-8942-9F7C-21CEB111D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="7340" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{2FF4CEE7-7400-BF41-BE74-5A9D60E27FB3}"/>
+    <workbookView xWindow="400" yWindow="4320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{2FF4CEE7-7400-BF41-BE74-5A9D60E27FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="8 grids" sheetId="1" r:id="rId1"/>
     <sheet name="10 grids" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -15229,7 +15229,7 @@
         <v>0.22698272623411192</v>
       </c>
       <c r="AL7">
-        <f t="shared" ref="AL7:AU7" si="1">AA7/(AA7+O7)</f>
+        <f t="shared" ref="AL7:AT7" si="1">AA7/(AA7+O7)</f>
         <v>0.22596993427339065</v>
       </c>
       <c r="AM7">

--- a/UZr/temperature_gradient.xlsx
+++ b/UZr/temperature_gradient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45B066-907D-8146-9C20-A9120A72A249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F08DD78-189F-5F46-8049-1CB9817CD28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1040" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{2FF4CEE7-7400-BF41-BE74-5A9D60E27FB3}"/>
+    <workbookView xWindow="2020" yWindow="1040" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{2FF4CEE7-7400-BF41-BE74-5A9D60E27FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="8 grids" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="surfaces" sheetId="7" r:id="rId6"/>
     <sheet name="atom_swap" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="56">
   <si>
     <t>TimeStep</t>
   </si>
@@ -207,6 +208,9 @@
   </si>
   <si>
     <t>intE</t>
+  </si>
+  <si>
+    <t>250 ints</t>
   </si>
 </sst>
 </file>
@@ -7821,6 +7825,1146 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1226923135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.98075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.130700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.280700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.430700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.580699999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.730699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.18100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158.33099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192.631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>209.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244.08099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>261.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>278.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346.98099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$6:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.21336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2260200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2073799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2188600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1956500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2356499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2239899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.22018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.21953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2254</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.24715</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.23309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2190700000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2280500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.24577</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.26596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF87-BB49-B185-3C2C1BA450DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.98075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.130700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.280700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.430700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.580699999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.730699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.18100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158.33099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192.631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>209.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244.08099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>261.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>278.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346.98099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$29:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.21377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.22834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.20811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.24071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2329699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2178899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2452099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2224200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.23498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.22489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2482500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2491399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.23587</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.21696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2231399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2363299999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2408300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.26738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF87-BB49-B185-3C2C1BA450DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="567632719"/>
+        <c:axId val="567634431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="567632719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567634431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567634431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567632719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.98075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.130700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.280700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.430700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.580699999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.730699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.18100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158.33099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192.631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>209.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244.08099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>261.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>278.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346.98099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$6:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>997.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1085.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1204.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1315.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1380.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1426.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1473.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1479.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1466.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1443.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1406.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1355.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1274.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1217.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1167.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1119.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1066.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1024.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1027.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1011.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>995.69600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BB1-6B41-8087-04E7803B8E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.98075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.130700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.280700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.430700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.580699999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.730699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.18100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158.33099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192.631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>209.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244.08099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>261.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>278.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346.98099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$29:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>997.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1074.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1161.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1259.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1373.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1443.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1478.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1504.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1491.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1458.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1413.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1379.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1330.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1285.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1227.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1184.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1128.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1081.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1047.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1045.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1014.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BB1-6B41-8087-04E7803B8E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="567632719"/>
+        <c:axId val="567634431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="567632719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567634431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567634431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567632719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11511,6 +12655,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19532,6 +20756,1038 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24548,6 +26804,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4DF3AA-691E-35DD-3780-5818763F7F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B796D3-79F0-5D40-B903-250BB75E4F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -60411,8 +62746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC51B043-B650-9148-AAD8-E1F5EADD47DD}">
   <dimension ref="C8:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61129,8 +63464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49A5D0B-8D81-6248-A300-290D9698E6F1}">
   <dimension ref="B8:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61875,4 +64210,761 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFFBA79-D472-204D-9835-7A3EE633FCE6}">
+  <dimension ref="B3:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>69000</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3.98075</v>
+      </c>
+      <c r="E6">
+        <v>984.98800000000006</v>
+      </c>
+      <c r="F6">
+        <v>1.21336</v>
+      </c>
+      <c r="G6">
+        <v>997.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>21.130700000000001</v>
+      </c>
+      <c r="E7">
+        <v>983.15499999999997</v>
+      </c>
+      <c r="F7">
+        <v>1.2260200000000001</v>
+      </c>
+      <c r="G7">
+        <v>1085.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>38.280700000000003</v>
+      </c>
+      <c r="E8">
+        <v>986.25900000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.2073799999999999</v>
+      </c>
+      <c r="G8">
+        <v>1204.82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>55.430700000000002</v>
+      </c>
+      <c r="E9">
+        <v>966.05</v>
+      </c>
+      <c r="F9">
+        <v>1.23919</v>
+      </c>
+      <c r="G9">
+        <v>1315.88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>72.580699999999993</v>
+      </c>
+      <c r="E10">
+        <v>953.62900000000002</v>
+      </c>
+      <c r="F10">
+        <v>1.2274</v>
+      </c>
+      <c r="G10">
+        <v>1380.98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>89.730699999999999</v>
+      </c>
+      <c r="E11">
+        <v>988.99699999999996</v>
+      </c>
+      <c r="F11">
+        <v>1.2188600000000001</v>
+      </c>
+      <c r="G11">
+        <v>1426.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>106.881</v>
+      </c>
+      <c r="E12">
+        <v>973.10900000000004</v>
+      </c>
+      <c r="F12">
+        <v>1.1956500000000001</v>
+      </c>
+      <c r="G12">
+        <v>1473.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>124.03100000000001</v>
+      </c>
+      <c r="E13">
+        <v>937.09699999999998</v>
+      </c>
+      <c r="F13">
+        <v>1.2356499999999999</v>
+      </c>
+      <c r="G13">
+        <v>1479.35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>141.18100000000001</v>
+      </c>
+      <c r="E14">
+        <v>988.67</v>
+      </c>
+      <c r="F14">
+        <v>1.2343</v>
+      </c>
+      <c r="G14">
+        <v>1466.74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>158.33099999999999</v>
+      </c>
+      <c r="E15">
+        <v>966.02499999999998</v>
+      </c>
+      <c r="F15">
+        <v>1.2239899999999999</v>
+      </c>
+      <c r="G15">
+        <v>1443.92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>175.48099999999999</v>
+      </c>
+      <c r="E16">
+        <v>957.13099999999997</v>
+      </c>
+      <c r="F16">
+        <v>1.22018</v>
+      </c>
+      <c r="G16">
+        <v>1406.86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>192.631</v>
+      </c>
+      <c r="E17">
+        <v>974.43299999999999</v>
+      </c>
+      <c r="F17">
+        <v>1.21953</v>
+      </c>
+      <c r="G17">
+        <v>1355.89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>209.78100000000001</v>
+      </c>
+      <c r="E18">
+        <v>980.98299999999995</v>
+      </c>
+      <c r="F18">
+        <v>1.2254</v>
+      </c>
+      <c r="G18">
+        <v>1274.82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>226.93100000000001</v>
+      </c>
+      <c r="E19">
+        <v>967.65599999999995</v>
+      </c>
+      <c r="F19">
+        <v>1.2461</v>
+      </c>
+      <c r="G19">
+        <v>1217.79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>244.08099999999999</v>
+      </c>
+      <c r="E20">
+        <v>960.89099999999996</v>
+      </c>
+      <c r="F20">
+        <v>1.24715</v>
+      </c>
+      <c r="G20">
+        <v>1167.96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>261.23099999999999</v>
+      </c>
+      <c r="E21">
+        <v>996.92200000000003</v>
+      </c>
+      <c r="F21">
+        <v>1.23309</v>
+      </c>
+      <c r="G21">
+        <v>1119.4000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>278.38099999999997</v>
+      </c>
+      <c r="E22">
+        <v>997.77099999999996</v>
+      </c>
+      <c r="F22">
+        <v>1.2190700000000001</v>
+      </c>
+      <c r="G22">
+        <v>1066.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>295.53100000000001</v>
+      </c>
+      <c r="E23">
+        <v>963.99300000000005</v>
+      </c>
+      <c r="F23">
+        <v>1.2280500000000001</v>
+      </c>
+      <c r="G23">
+        <v>1024.26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>312.68099999999998</v>
+      </c>
+      <c r="E24">
+        <v>961.61099999999999</v>
+      </c>
+      <c r="F24">
+        <v>1.2341</v>
+      </c>
+      <c r="G24">
+        <v>1027.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>329.83100000000002</v>
+      </c>
+      <c r="E25">
+        <v>986.83299999999997</v>
+      </c>
+      <c r="F25">
+        <v>1.24577</v>
+      </c>
+      <c r="G25">
+        <v>1011.62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>346.98099999999999</v>
+      </c>
+      <c r="E26">
+        <v>528.79700000000003</v>
+      </c>
+      <c r="F26">
+        <v>1.26596</v>
+      </c>
+      <c r="G26">
+        <v>995.69600000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3450000</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3.98075</v>
+      </c>
+      <c r="E29">
+        <v>991.93</v>
+      </c>
+      <c r="F29">
+        <v>1.21377</v>
+      </c>
+      <c r="G29">
+        <v>997.81299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>21.130700000000001</v>
+      </c>
+      <c r="E30">
+        <v>995.923</v>
+      </c>
+      <c r="F30">
+        <v>1.22834</v>
+      </c>
+      <c r="G30">
+        <v>1074.49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>38.280700000000003</v>
+      </c>
+      <c r="E31">
+        <v>997.92200000000003</v>
+      </c>
+      <c r="F31">
+        <v>1.20811</v>
+      </c>
+      <c r="G31">
+        <v>1161.57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>55.430700000000002</v>
+      </c>
+      <c r="E32">
+        <v>1000.8</v>
+      </c>
+      <c r="F32">
+        <v>1.24071</v>
+      </c>
+      <c r="G32">
+        <v>1259.08</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>72.580699999999993</v>
+      </c>
+      <c r="E33">
+        <v>998.73800000000006</v>
+      </c>
+      <c r="F33">
+        <v>1.2329699999999999</v>
+      </c>
+      <c r="G33">
+        <v>1373.38</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>89.730699999999999</v>
+      </c>
+      <c r="E34">
+        <v>976.95500000000004</v>
+      </c>
+      <c r="F34">
+        <v>1.2178899999999999</v>
+      </c>
+      <c r="G34">
+        <v>1443.05</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>106.881</v>
+      </c>
+      <c r="E35">
+        <v>953.04100000000005</v>
+      </c>
+      <c r="F35">
+        <v>1.1726000000000001</v>
+      </c>
+      <c r="G35">
+        <v>1478.69</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>124.03100000000001</v>
+      </c>
+      <c r="E36">
+        <v>978.98299999999995</v>
+      </c>
+      <c r="F36">
+        <v>1.2452099999999999</v>
+      </c>
+      <c r="G36">
+        <v>1504.99</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>141.18100000000001</v>
+      </c>
+      <c r="E37">
+        <v>1000.1</v>
+      </c>
+      <c r="F37">
+        <v>1.24085</v>
+      </c>
+      <c r="G37">
+        <v>1491.69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>158.33099999999999</v>
+      </c>
+      <c r="E38">
+        <v>991.91399999999999</v>
+      </c>
+      <c r="F38">
+        <v>1.2224200000000001</v>
+      </c>
+      <c r="G38">
+        <v>1458.45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>175.48099999999999</v>
+      </c>
+      <c r="E39">
+        <v>972.76900000000001</v>
+      </c>
+      <c r="F39">
+        <v>1.1959</v>
+      </c>
+      <c r="G39">
+        <v>1413.58</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>192.631</v>
+      </c>
+      <c r="E40">
+        <v>962.56299999999999</v>
+      </c>
+      <c r="F40">
+        <v>1.23498</v>
+      </c>
+      <c r="G40">
+        <v>1379.23</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>209.78100000000001</v>
+      </c>
+      <c r="E41">
+        <v>965.29600000000005</v>
+      </c>
+      <c r="F41">
+        <v>1.22489</v>
+      </c>
+      <c r="G41">
+        <v>1330.7</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>226.93100000000001</v>
+      </c>
+      <c r="E42">
+        <v>989.94899999999996</v>
+      </c>
+      <c r="F42">
+        <v>1.2482500000000001</v>
+      </c>
+      <c r="G42">
+        <v>1285.74</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>244.08099999999999</v>
+      </c>
+      <c r="E43">
+        <v>998.774</v>
+      </c>
+      <c r="F43">
+        <v>1.2491399999999999</v>
+      </c>
+      <c r="G43">
+        <v>1227.78</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>261.23099999999999</v>
+      </c>
+      <c r="E44">
+        <v>1000.36</v>
+      </c>
+      <c r="F44">
+        <v>1.23587</v>
+      </c>
+      <c r="G44">
+        <v>1184.3900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>278.38099999999997</v>
+      </c>
+      <c r="E45">
+        <v>992.99400000000003</v>
+      </c>
+      <c r="F45">
+        <v>1.21696</v>
+      </c>
+      <c r="G45">
+        <v>1128.33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>295.53100000000001</v>
+      </c>
+      <c r="E46">
+        <v>978.596</v>
+      </c>
+      <c r="F46">
+        <v>1.2231399999999999</v>
+      </c>
+      <c r="G46">
+        <v>1081.97</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>312.68099999999998</v>
+      </c>
+      <c r="E47">
+        <v>981.93399999999997</v>
+      </c>
+      <c r="F47">
+        <v>1.2363299999999999</v>
+      </c>
+      <c r="G47">
+        <v>1047.17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>329.83100000000002</v>
+      </c>
+      <c r="E48">
+        <v>994.23500000000001</v>
+      </c>
+      <c r="F48">
+        <v>1.2408300000000001</v>
+      </c>
+      <c r="G48">
+        <v>1045.52</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>346.98099999999999</v>
+      </c>
+      <c r="E49">
+        <v>526.22799999999995</v>
+      </c>
+      <c r="F49">
+        <v>1.26738</v>
+      </c>
+      <c r="G49">
+        <v>1014.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>